--- a/04_Base/03/lesson_03.xlsx
+++ b/04_Base/03/lesson_03.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\lessons\04_Base\03\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\GB\lessons\04_Base\03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{54F98A41-ED07-454B-BA45-66D34B9DD74A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BE36804-D576-4C93-A25B-492F1E59D654}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C63088AF-72BF-4064-9595-6BA554DC09D8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{C63088AF-72BF-4064-9595-6BA554DC09D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Task" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="88">
   <si>
     <t xml:space="preserve"> Опишите базу данных для школьного кабинета, в рамках которой можно фиксировать, кто и в какое время сидел за той или иной партой.</t>
   </si>
@@ -41,13 +41,262 @@
   </si>
   <si>
     <t>Используйте поля «начало_урока» и «конец_урока» с типом данных TimeStamp.</t>
+  </si>
+  <si>
+    <t>Место ученика</t>
+  </si>
+  <si>
+    <t>id_desk</t>
+  </si>
+  <si>
+    <t>Поле</t>
+  </si>
+  <si>
+    <t>Тип</t>
+  </si>
+  <si>
+    <t>Длина</t>
+  </si>
+  <si>
+    <t>Комментарий</t>
+  </si>
+  <si>
+    <t>row</t>
+  </si>
+  <si>
+    <t>desk</t>
+  </si>
+  <si>
+    <t>option</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>Уникальный индитификатор парты</t>
+  </si>
+  <si>
+    <t>Ряд</t>
+  </si>
+  <si>
+    <t>Парта</t>
+  </si>
+  <si>
+    <t>Вариант</t>
+  </si>
+  <si>
+    <t>Ученики</t>
+  </si>
+  <si>
+    <t>Фамилия</t>
+  </si>
+  <si>
+    <t>Имя</t>
+  </si>
+  <si>
+    <t>Отчество</t>
+  </si>
+  <si>
+    <t>Иванов</t>
+  </si>
+  <si>
+    <t>Петров</t>
+  </si>
+  <si>
+    <t>Борунов</t>
+  </si>
+  <si>
+    <t>Гриб</t>
+  </si>
+  <si>
+    <t>Соловьева</t>
+  </si>
+  <si>
+    <t>Петренко</t>
+  </si>
+  <si>
+    <t>Бутько</t>
+  </si>
+  <si>
+    <t>Васильев</t>
+  </si>
+  <si>
+    <t>Белковва</t>
+  </si>
+  <si>
+    <t>Соловьев</t>
+  </si>
+  <si>
+    <t>Пупкин</t>
+  </si>
+  <si>
+    <t>Михеева</t>
+  </si>
+  <si>
+    <t>Иван</t>
+  </si>
+  <si>
+    <t>Петр</t>
+  </si>
+  <si>
+    <t>Иванович</t>
+  </si>
+  <si>
+    <t>Петрович</t>
+  </si>
+  <si>
+    <t>Васильевич</t>
+  </si>
+  <si>
+    <t>Василий</t>
+  </si>
+  <si>
+    <t>Михайлович</t>
+  </si>
+  <si>
+    <t>Александр</t>
+  </si>
+  <si>
+    <t>Сергеевич</t>
+  </si>
+  <si>
+    <t>Мария</t>
+  </si>
+  <si>
+    <t>Николаевна</t>
+  </si>
+  <si>
+    <t>Марат</t>
+  </si>
+  <si>
+    <t>Леонтьевич</t>
+  </si>
+  <si>
+    <t>Александрович</t>
+  </si>
+  <si>
+    <t>Михаил</t>
+  </si>
+  <si>
+    <t>Афанасьевич</t>
+  </si>
+  <si>
+    <t>Светлана</t>
+  </si>
+  <si>
+    <t>Алексеевна</t>
+  </si>
+  <si>
+    <t>Лариса</t>
+  </si>
+  <si>
+    <t>Федоровна</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сергей </t>
+  </si>
+  <si>
+    <t>Марина</t>
+  </si>
+  <si>
+    <t>Александровна</t>
+  </si>
+  <si>
+    <t>Коментарий</t>
+  </si>
+  <si>
+    <t>id_student</t>
+  </si>
+  <si>
+    <t>Уникальный идитификатор ученика</t>
+  </si>
+  <si>
+    <t>surname</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>patronymic</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>Классы</t>
+  </si>
+  <si>
+    <t>А</t>
+  </si>
+  <si>
+    <t>Б</t>
+  </si>
+  <si>
+    <t>В</t>
+  </si>
+  <si>
+    <t>id_class</t>
+  </si>
+  <si>
+    <t>Уникальный идитификатор класса</t>
+  </si>
+  <si>
+    <t>numb</t>
+  </si>
+  <si>
+    <t>Номер класса</t>
+  </si>
+  <si>
+    <t>char</t>
+  </si>
+  <si>
+    <t>Буква класса</t>
+  </si>
+  <si>
+    <t>Кабинет физики</t>
+  </si>
+  <si>
+    <t>Кабинетфизики</t>
+  </si>
+  <si>
+    <t>тип</t>
+  </si>
+  <si>
+    <t>Кометарий</t>
+  </si>
+  <si>
+    <t>id_cabinet</t>
+  </si>
+  <si>
+    <t>Уникальный индитификатор урока</t>
+  </si>
+  <si>
+    <t>lesson_start</t>
+  </si>
+  <si>
+    <t>Начало Урока</t>
+  </si>
+  <si>
+    <t>Конец Урока</t>
+  </si>
+  <si>
+    <t>lesson_stop</t>
+  </si>
+  <si>
+    <t>TimeStamp</t>
+  </si>
+  <si>
+    <t>Сводная таблица</t>
+  </si>
+  <si>
+    <t>Своднвая таблица</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -65,16 +314,104 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -82,24 +419,216 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Плохой" xfId="1" builtinId="27"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -413,129 +942,129 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{911033F1-0B8C-4F2B-BDE8-021D86C5B1F3}">
   <dimension ref="B4:Q9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="4" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="24"/>
     </row>
     <row r="5" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
     </row>
     <row r="6" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
+      <c r="B6" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="24"/>
     </row>
     <row r="7" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
+      <c r="B7" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="24"/>
     </row>
     <row r="8" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
+      <c r="B8" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="24"/>
     </row>
     <row r="9" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -552,12 +1081,2396 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A93EC6B0-008D-4278-9F45-B47B61633911}">
-  <dimension ref="A1"/>
+  <dimension ref="B5:Y93"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J64" sqref="J64"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" customWidth="1"/>
+    <col min="12" max="12" width="14" customWidth="1"/>
+    <col min="13" max="13" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B5" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="J5" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
+      <c r="Q5" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="R5" s="39"/>
+      <c r="S5" s="40"/>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="M6" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q6" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="R6" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="S6" s="16" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B7" s="3">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+      <c r="J7" s="8">
+        <v>1</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="M7" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q7" s="13">
+        <v>1</v>
+      </c>
+      <c r="R7" s="13">
+        <v>5</v>
+      </c>
+      <c r="S7" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B8" s="3">
+        <v>2</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2</v>
+      </c>
+      <c r="J8" s="8">
+        <v>2</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="M8" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q8" s="13">
+        <v>2</v>
+      </c>
+      <c r="R8" s="13">
+        <v>5</v>
+      </c>
+      <c r="S8" s="13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B9" s="3">
+        <v>3</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3">
+        <v>2</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+      <c r="J9" s="8">
+        <v>3</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q9" s="13">
+        <v>3</v>
+      </c>
+      <c r="R9" s="13">
+        <v>5</v>
+      </c>
+      <c r="S9" s="13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B10" s="3">
+        <v>4</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3">
+        <v>2</v>
+      </c>
+      <c r="E10" s="3">
+        <v>2</v>
+      </c>
+      <c r="J10" s="8">
+        <v>4</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="M10" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q10" s="13">
+        <v>4</v>
+      </c>
+      <c r="R10" s="13">
+        <v>6</v>
+      </c>
+      <c r="S10" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B11" s="3">
+        <v>5</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1</v>
+      </c>
+      <c r="D11" s="3">
+        <v>3</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+      <c r="J11" s="8">
+        <v>5</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="M11" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q11" s="13">
+        <v>5</v>
+      </c>
+      <c r="R11" s="13">
+        <v>6</v>
+      </c>
+      <c r="S11" s="13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B12" s="3">
+        <v>6</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3">
+        <v>3</v>
+      </c>
+      <c r="E12" s="3">
+        <v>2</v>
+      </c>
+      <c r="J12" s="8">
+        <v>6</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="L12" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="M12" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q12" s="13">
+        <v>6</v>
+      </c>
+      <c r="R12" s="13">
+        <v>6</v>
+      </c>
+      <c r="S12" s="13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B13" s="3">
+        <v>7</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
+      <c r="D13" s="3">
+        <v>4</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1</v>
+      </c>
+      <c r="J13" s="8">
+        <v>7</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="L13" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="M13" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q13" s="13">
+        <v>7</v>
+      </c>
+      <c r="R13" s="13">
+        <v>7</v>
+      </c>
+      <c r="S13" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B14" s="3">
+        <v>8</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3">
+        <v>4</v>
+      </c>
+      <c r="E14" s="3">
+        <v>2</v>
+      </c>
+      <c r="J14" s="8">
+        <v>8</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L14" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="M14" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q14" s="13">
+        <v>8</v>
+      </c>
+      <c r="R14" s="13">
+        <v>7</v>
+      </c>
+      <c r="S14" s="13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B15" s="3">
+        <v>9</v>
+      </c>
+      <c r="C15" s="3">
+        <v>1</v>
+      </c>
+      <c r="D15" s="3">
+        <v>5</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1</v>
+      </c>
+      <c r="J15" s="8">
+        <v>9</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L15" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="M15" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q15" s="13">
+        <v>9</v>
+      </c>
+      <c r="R15" s="13">
+        <v>7</v>
+      </c>
+      <c r="S15" s="13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B16" s="3">
+        <v>10</v>
+      </c>
+      <c r="C16" s="3">
+        <v>1</v>
+      </c>
+      <c r="D16" s="3">
+        <v>5</v>
+      </c>
+      <c r="E16" s="3">
+        <v>2</v>
+      </c>
+      <c r="J16" s="8">
+        <v>10</v>
+      </c>
+      <c r="K16" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L16" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="M16" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q16" s="13">
+        <v>10</v>
+      </c>
+      <c r="R16" s="13">
+        <v>8</v>
+      </c>
+      <c r="S16" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B17" s="3">
+        <v>11</v>
+      </c>
+      <c r="C17" s="3">
+        <v>2</v>
+      </c>
+      <c r="D17" s="3">
+        <v>1</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1</v>
+      </c>
+      <c r="J17" s="8">
+        <v>11</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="L17" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="M17" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q17" s="13">
+        <v>11</v>
+      </c>
+      <c r="R17" s="13">
+        <v>8</v>
+      </c>
+      <c r="S17" s="13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B18" s="3">
+        <v>12</v>
+      </c>
+      <c r="C18" s="3">
+        <v>2</v>
+      </c>
+      <c r="D18" s="3">
+        <v>1</v>
+      </c>
+      <c r="E18" s="3">
+        <v>2</v>
+      </c>
+      <c r="J18" s="8">
+        <v>12</v>
+      </c>
+      <c r="K18" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="L18" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="M18" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q18" s="13">
+        <v>12</v>
+      </c>
+      <c r="R18" s="13">
+        <v>8</v>
+      </c>
+      <c r="S18" s="13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B19" s="3">
+        <v>13</v>
+      </c>
+      <c r="C19" s="3">
+        <v>2</v>
+      </c>
+      <c r="D19" s="3">
+        <v>2</v>
+      </c>
+      <c r="E19" s="3">
+        <v>1</v>
+      </c>
+      <c r="J19" s="8">
+        <v>13</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="L19" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="M19" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q19" s="13">
+        <v>13</v>
+      </c>
+      <c r="R19" s="13">
+        <v>9</v>
+      </c>
+      <c r="S19" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B20" s="3">
+        <v>14</v>
+      </c>
+      <c r="C20" s="3">
+        <v>2</v>
+      </c>
+      <c r="D20" s="3">
+        <v>2</v>
+      </c>
+      <c r="E20" s="3">
+        <v>2</v>
+      </c>
+      <c r="J20" s="8">
+        <v>14</v>
+      </c>
+      <c r="K20" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="L20" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="M20" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q20" s="13">
+        <v>14</v>
+      </c>
+      <c r="R20" s="13">
+        <v>9</v>
+      </c>
+      <c r="S20" s="13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B21" s="3">
+        <v>15</v>
+      </c>
+      <c r="C21" s="3">
+        <v>2</v>
+      </c>
+      <c r="D21" s="3">
+        <v>3</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1</v>
+      </c>
+      <c r="J21" s="8">
+        <v>15</v>
+      </c>
+      <c r="K21" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="L21" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="M21" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q21" s="13">
+        <v>15</v>
+      </c>
+      <c r="R21" s="13">
+        <v>9</v>
+      </c>
+      <c r="S21" s="13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B22" s="3">
+        <v>16</v>
+      </c>
+      <c r="C22" s="3">
+        <v>2</v>
+      </c>
+      <c r="D22" s="3">
+        <v>3</v>
+      </c>
+      <c r="E22" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B23" s="3">
+        <v>17</v>
+      </c>
+      <c r="C23" s="3">
+        <v>2</v>
+      </c>
+      <c r="D23" s="3">
+        <v>4</v>
+      </c>
+      <c r="E23" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B24" s="3">
+        <v>18</v>
+      </c>
+      <c r="C24" s="3">
+        <v>2</v>
+      </c>
+      <c r="D24" s="3">
+        <v>4</v>
+      </c>
+      <c r="E24" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B25" s="3">
+        <v>19</v>
+      </c>
+      <c r="C25" s="3">
+        <v>2</v>
+      </c>
+      <c r="D25" s="3">
+        <v>5</v>
+      </c>
+      <c r="E25" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B26" s="3">
+        <v>20</v>
+      </c>
+      <c r="C26" s="3">
+        <v>2</v>
+      </c>
+      <c r="D26" s="3">
+        <v>5</v>
+      </c>
+      <c r="E26" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B27" s="3">
+        <v>21</v>
+      </c>
+      <c r="C27" s="3">
+        <v>3</v>
+      </c>
+      <c r="D27" s="3">
+        <v>1</v>
+      </c>
+      <c r="E27" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B28" s="3">
+        <v>22</v>
+      </c>
+      <c r="C28" s="3">
+        <v>3</v>
+      </c>
+      <c r="D28" s="3">
+        <v>1</v>
+      </c>
+      <c r="E28" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B29" s="3">
+        <v>23</v>
+      </c>
+      <c r="C29" s="3">
+        <v>3</v>
+      </c>
+      <c r="D29" s="3">
+        <v>2</v>
+      </c>
+      <c r="E29" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B30" s="3">
+        <v>24</v>
+      </c>
+      <c r="C30" s="3">
+        <v>3</v>
+      </c>
+      <c r="D30" s="3">
+        <v>2</v>
+      </c>
+      <c r="E30" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B31" s="3">
+        <v>25</v>
+      </c>
+      <c r="C31" s="3">
+        <v>3</v>
+      </c>
+      <c r="D31" s="3">
+        <v>3</v>
+      </c>
+      <c r="E31" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B32" s="3">
+        <v>26</v>
+      </c>
+      <c r="C32" s="3">
+        <v>3</v>
+      </c>
+      <c r="D32" s="3">
+        <v>3</v>
+      </c>
+      <c r="E32" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B33" s="3">
+        <v>27</v>
+      </c>
+      <c r="C33" s="3">
+        <v>3</v>
+      </c>
+      <c r="D33" s="3">
+        <v>4</v>
+      </c>
+      <c r="E33" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B34" s="3">
+        <v>28</v>
+      </c>
+      <c r="C34" s="3">
+        <v>3</v>
+      </c>
+      <c r="D34" s="3">
+        <v>4</v>
+      </c>
+      <c r="E34" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B35" s="3">
+        <v>29</v>
+      </c>
+      <c r="C35" s="3">
+        <v>3</v>
+      </c>
+      <c r="D35" s="3">
+        <v>5</v>
+      </c>
+      <c r="E35" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B36" s="3">
+        <v>30</v>
+      </c>
+      <c r="C36" s="3">
+        <v>3</v>
+      </c>
+      <c r="D36" s="3">
+        <v>5</v>
+      </c>
+      <c r="E36" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B39" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" s="50"/>
+      <c r="D39" s="50"/>
+      <c r="E39" s="50"/>
+      <c r="F39" s="50"/>
+      <c r="G39" s="50"/>
+      <c r="H39" s="50"/>
+      <c r="J39" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="K39" s="26"/>
+      <c r="L39" s="26"/>
+      <c r="M39" s="26"/>
+      <c r="N39" s="26"/>
+      <c r="O39" s="26"/>
+      <c r="Q39" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="R39" s="29"/>
+      <c r="S39" s="29"/>
+      <c r="T39" s="29"/>
+      <c r="U39" s="29"/>
+      <c r="V39" s="29"/>
+      <c r="W39" s="29"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B40" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="F40" s="48"/>
+      <c r="G40" s="48"/>
+      <c r="H40" s="49"/>
+      <c r="J40" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K40" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="L40" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="M40" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="N40" s="26"/>
+      <c r="O40" s="26"/>
+      <c r="Q40" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="R40" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="S40" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="T40" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="U40" s="29"/>
+      <c r="V40" s="29"/>
+      <c r="W40" s="29"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B41" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D41" s="4">
+        <v>10</v>
+      </c>
+      <c r="E41" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="F41" s="45"/>
+      <c r="G41" s="45"/>
+      <c r="H41" s="46"/>
+      <c r="J41" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="K41" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="L41" s="12">
+        <v>10</v>
+      </c>
+      <c r="M41" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="N41" s="42"/>
+      <c r="O41" s="42"/>
+      <c r="Q41" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="R41" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="S41" s="14">
+        <v>10</v>
+      </c>
+      <c r="T41" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="U41" s="37"/>
+      <c r="V41" s="37"/>
+      <c r="W41" s="37"/>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B42" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D42" s="4">
+        <v>10</v>
+      </c>
+      <c r="E42" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="F42" s="45"/>
+      <c r="G42" s="45"/>
+      <c r="H42" s="46"/>
+      <c r="J42" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="K42" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="L42" s="12">
+        <v>30</v>
+      </c>
+      <c r="M42" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="N42" s="42"/>
+      <c r="O42" s="42"/>
+      <c r="Q42" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="R42" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="S42" s="14">
+        <v>10</v>
+      </c>
+      <c r="T42" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="U42" s="37"/>
+      <c r="V42" s="37"/>
+      <c r="W42" s="37"/>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B43" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D43" s="4">
+        <v>10</v>
+      </c>
+      <c r="E43" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="F43" s="45"/>
+      <c r="G43" s="45"/>
+      <c r="H43" s="46"/>
+      <c r="J43" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="K43" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="L43" s="12">
+        <v>30</v>
+      </c>
+      <c r="M43" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="N43" s="42"/>
+      <c r="O43" s="42"/>
+      <c r="Q43" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="R43" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="S43" s="14">
+        <v>10</v>
+      </c>
+      <c r="T43" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="U43" s="37"/>
+      <c r="V43" s="37"/>
+      <c r="W43" s="37"/>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B44" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D44" s="4">
+        <v>10</v>
+      </c>
+      <c r="E44" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="F44" s="45"/>
+      <c r="G44" s="45"/>
+      <c r="H44" s="46"/>
+      <c r="J44" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="K44" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="L44" s="12">
+        <v>30</v>
+      </c>
+      <c r="M44" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="N44" s="42"/>
+      <c r="O44" s="42"/>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B49" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="C49" s="32"/>
+      <c r="D49" s="32"/>
+      <c r="E49" s="32"/>
+      <c r="F49" s="32"/>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B50" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="C50" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="D50" s="32"/>
+      <c r="E50" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="F50" s="32"/>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B51" s="19">
+        <v>1</v>
+      </c>
+      <c r="C51" s="36">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D51" s="28"/>
+      <c r="E51" s="36">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="F51" s="28"/>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B52" s="19">
+        <v>2</v>
+      </c>
+      <c r="C52" s="36">
+        <v>0.37152777777777773</v>
+      </c>
+      <c r="D52" s="28"/>
+      <c r="E52" s="36">
+        <v>0.40277777777777773</v>
+      </c>
+      <c r="F52" s="28"/>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B53" s="19">
+        <v>3</v>
+      </c>
+      <c r="C53" s="36">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="D53" s="28"/>
+      <c r="E53" s="36">
+        <v>0.44097222222222227</v>
+      </c>
+      <c r="F53" s="28"/>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B54" s="19">
+        <v>4</v>
+      </c>
+      <c r="C54" s="36">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="D54" s="28"/>
+      <c r="E54" s="36">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="F54" s="28"/>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B55" s="19">
+        <v>5</v>
+      </c>
+      <c r="C55" s="36">
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="D55" s="28"/>
+      <c r="E55" s="36">
+        <v>0.51736111111111105</v>
+      </c>
+      <c r="F55" s="28"/>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B56" s="19">
+        <v>6</v>
+      </c>
+      <c r="C56" s="36">
+        <v>0.52430555555555558</v>
+      </c>
+      <c r="D56" s="28"/>
+      <c r="E56" s="36">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="F56" s="28"/>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B60" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="C60" s="30"/>
+      <c r="D60" s="30"/>
+      <c r="E60" s="30"/>
+      <c r="F60" s="30"/>
+      <c r="G60" s="30"/>
+      <c r="H60" s="30"/>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B61" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C61" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D61" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E61" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="F61" s="34"/>
+      <c r="G61" s="34"/>
+      <c r="H61" s="35"/>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B62" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C62" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D62" s="19">
+        <v>10</v>
+      </c>
+      <c r="E62" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="F62" s="28"/>
+      <c r="G62" s="28"/>
+      <c r="H62" s="28"/>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B63" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="C63" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="D63" s="19"/>
+      <c r="E63" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="F63" s="28"/>
+      <c r="G63" s="28"/>
+      <c r="H63" s="28"/>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B64" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="C64" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="D64" s="19"/>
+      <c r="E64" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="F64" s="28"/>
+      <c r="G64" s="28"/>
+      <c r="H64" s="28"/>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B69" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="C69" s="31"/>
+      <c r="D69" s="31"/>
+      <c r="E69" s="31"/>
+      <c r="F69" s="31"/>
+      <c r="J69" s="51" t="s">
+        <v>86</v>
+      </c>
+      <c r="K69" s="51"/>
+      <c r="L69" s="51"/>
+      <c r="M69" s="51"/>
+      <c r="N69" s="51"/>
+      <c r="O69" s="51"/>
+      <c r="P69" s="51"/>
+      <c r="Q69" s="51"/>
+      <c r="R69" s="51"/>
+      <c r="S69" s="51"/>
+      <c r="T69" s="51"/>
+      <c r="U69" s="51"/>
+      <c r="V69" s="51"/>
+      <c r="W69" s="51"/>
+      <c r="X69" s="51"/>
+      <c r="Y69" s="51"/>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B70" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C70" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="D70" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="E70" s="30"/>
+      <c r="F70" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J70" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="K70" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="L70" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="M70" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="N70" s="52" t="s">
+        <v>69</v>
+      </c>
+      <c r="O70" s="52" t="s">
+        <v>71</v>
+      </c>
+      <c r="P70" s="52" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q70" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="R70" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="S70" s="32"/>
+      <c r="T70" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="U70" s="32"/>
+      <c r="V70" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="W70" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="X70" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y70" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B71" s="12">
+        <v>1</v>
+      </c>
+      <c r="C71" s="14">
+        <v>2</v>
+      </c>
+      <c r="D71" s="28">
+        <v>4</v>
+      </c>
+      <c r="E71" s="28"/>
+      <c r="F71" s="4">
+        <v>1</v>
+      </c>
+      <c r="J71" s="12">
+        <v>1</v>
+      </c>
+      <c r="K71" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L71" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="M71" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="N71" s="14">
+        <v>2</v>
+      </c>
+      <c r="O71" s="13">
+        <v>5</v>
+      </c>
+      <c r="P71" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q71" s="20">
+        <v>4</v>
+      </c>
+      <c r="R71" s="36">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="S71" s="28"/>
+      <c r="T71" s="36">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="U71" s="28"/>
+      <c r="V71" s="4">
+        <v>1</v>
+      </c>
+      <c r="W71" s="3">
+        <v>1</v>
+      </c>
+      <c r="X71" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y71" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B72" s="12">
+        <v>2</v>
+      </c>
+      <c r="C72" s="14">
+        <v>2</v>
+      </c>
+      <c r="D72" s="28">
+        <v>4</v>
+      </c>
+      <c r="E72" s="28"/>
+      <c r="F72" s="4">
+        <v>2</v>
+      </c>
+      <c r="J72" s="12">
+        <v>2</v>
+      </c>
+      <c r="K72" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="L72" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="M72" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="N72" s="14">
+        <v>2</v>
+      </c>
+      <c r="O72" s="13">
+        <v>5</v>
+      </c>
+      <c r="P72" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q72" s="20">
+        <v>4</v>
+      </c>
+      <c r="R72" s="36">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="S72" s="28"/>
+      <c r="T72" s="36">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="U72" s="28"/>
+      <c r="V72" s="4">
+        <v>2</v>
+      </c>
+      <c r="W72" s="3">
+        <v>1</v>
+      </c>
+      <c r="X72" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y72" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B73" s="12">
+        <v>3</v>
+      </c>
+      <c r="C73" s="14">
+        <v>2</v>
+      </c>
+      <c r="D73" s="28">
+        <v>4</v>
+      </c>
+      <c r="E73" s="28"/>
+      <c r="F73" s="4">
+        <v>11</v>
+      </c>
+      <c r="J73" s="12">
+        <v>3</v>
+      </c>
+      <c r="K73" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L73" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="M73" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="N73" s="14">
+        <v>2</v>
+      </c>
+      <c r="O73" s="13">
+        <v>5</v>
+      </c>
+      <c r="P73" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q73" s="20">
+        <v>4</v>
+      </c>
+      <c r="R73" s="36">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="S73" s="28"/>
+      <c r="T73" s="36">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="U73" s="28"/>
+      <c r="V73" s="4">
+        <v>11</v>
+      </c>
+      <c r="W73" s="3">
+        <v>2</v>
+      </c>
+      <c r="X73" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y73" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B74" s="12">
+        <v>4</v>
+      </c>
+      <c r="C74" s="14">
+        <v>3</v>
+      </c>
+      <c r="D74" s="28">
+        <v>2</v>
+      </c>
+      <c r="E74" s="28"/>
+      <c r="F74" s="4">
+        <v>22</v>
+      </c>
+      <c r="J74" s="12">
+        <v>4</v>
+      </c>
+      <c r="K74" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="L74" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="M74" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="N74" s="14">
+        <v>3</v>
+      </c>
+      <c r="O74" s="13">
+        <v>5</v>
+      </c>
+      <c r="P74" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q74" s="20">
+        <v>2</v>
+      </c>
+      <c r="R74" s="36">
+        <v>0.37152777777777773</v>
+      </c>
+      <c r="S74" s="28"/>
+      <c r="T74" s="36">
+        <v>0.40277777777777773</v>
+      </c>
+      <c r="U74" s="28"/>
+      <c r="V74" s="4">
+        <v>22</v>
+      </c>
+      <c r="W74" s="3">
+        <v>3</v>
+      </c>
+      <c r="X74" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y74" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B75" s="12">
+        <v>5</v>
+      </c>
+      <c r="C75" s="14">
+        <v>3</v>
+      </c>
+      <c r="D75" s="28">
+        <v>2</v>
+      </c>
+      <c r="E75" s="28"/>
+      <c r="F75" s="4">
+        <v>21</v>
+      </c>
+      <c r="J75" s="12">
+        <v>5</v>
+      </c>
+      <c r="K75" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="L75" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="M75" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="N75" s="14">
+        <v>3</v>
+      </c>
+      <c r="O75" s="13">
+        <v>5</v>
+      </c>
+      <c r="P75" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q75" s="20">
+        <v>2</v>
+      </c>
+      <c r="R75" s="36">
+        <v>0.37152777777777773</v>
+      </c>
+      <c r="S75" s="28"/>
+      <c r="T75" s="36">
+        <v>0.40277777777777773</v>
+      </c>
+      <c r="U75" s="28"/>
+      <c r="V75" s="4">
+        <v>21</v>
+      </c>
+      <c r="W75" s="3">
+        <v>3</v>
+      </c>
+      <c r="X75" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y75" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B76" s="12">
+        <v>6</v>
+      </c>
+      <c r="C76" s="14">
+        <v>3</v>
+      </c>
+      <c r="D76" s="28">
+        <v>2</v>
+      </c>
+      <c r="E76" s="28"/>
+      <c r="F76" s="4">
+        <v>23</v>
+      </c>
+      <c r="J76" s="12">
+        <v>6</v>
+      </c>
+      <c r="K76" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="L76" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="M76" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="N76" s="14">
+        <v>3</v>
+      </c>
+      <c r="O76" s="13">
+        <v>5</v>
+      </c>
+      <c r="P76" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q76" s="20">
+        <v>2</v>
+      </c>
+      <c r="R76" s="36">
+        <v>0.37152777777777773</v>
+      </c>
+      <c r="S76" s="28"/>
+      <c r="T76" s="36">
+        <v>0.40277777777777773</v>
+      </c>
+      <c r="U76" s="28"/>
+      <c r="V76" s="4">
+        <v>23</v>
+      </c>
+      <c r="W76" s="3">
+        <v>3</v>
+      </c>
+      <c r="X76" s="3">
+        <v>2</v>
+      </c>
+      <c r="Y76" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B77" s="12">
+        <v>7</v>
+      </c>
+      <c r="C77" s="14">
+        <v>4</v>
+      </c>
+      <c r="D77" s="28">
+        <v>5</v>
+      </c>
+      <c r="E77" s="28"/>
+      <c r="F77" s="4">
+        <v>1</v>
+      </c>
+      <c r="J77" s="12">
+        <v>7</v>
+      </c>
+      <c r="K77" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="L77" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="M77" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="N77" s="14">
+        <v>4</v>
+      </c>
+      <c r="O77" s="13">
+        <v>6</v>
+      </c>
+      <c r="P77" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q77" s="20">
+        <v>5</v>
+      </c>
+      <c r="R77" s="36">
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="S77" s="28"/>
+      <c r="T77" s="36">
+        <v>0.51736111111111105</v>
+      </c>
+      <c r="U77" s="28"/>
+      <c r="V77" s="4">
+        <v>1</v>
+      </c>
+      <c r="W77" s="3">
+        <v>1</v>
+      </c>
+      <c r="X77" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y77" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B78" s="12">
+        <v>8</v>
+      </c>
+      <c r="C78" s="14">
+        <v>4</v>
+      </c>
+      <c r="D78" s="28">
+        <v>5</v>
+      </c>
+      <c r="E78" s="28"/>
+      <c r="F78" s="4">
+        <v>12</v>
+      </c>
+      <c r="J78" s="12">
+        <v>8</v>
+      </c>
+      <c r="K78" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L78" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="M78" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="N78" s="14">
+        <v>4</v>
+      </c>
+      <c r="O78" s="13">
+        <v>6</v>
+      </c>
+      <c r="P78" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q78" s="20">
+        <v>5</v>
+      </c>
+      <c r="R78" s="36">
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="S78" s="28"/>
+      <c r="T78" s="36">
+        <v>0.51736111111111105</v>
+      </c>
+      <c r="U78" s="28"/>
+      <c r="V78" s="4">
+        <v>12</v>
+      </c>
+      <c r="W78" s="3">
+        <v>2</v>
+      </c>
+      <c r="X78" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y78" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B79" s="12">
+        <v>9</v>
+      </c>
+      <c r="C79" s="14">
+        <v>4</v>
+      </c>
+      <c r="D79" s="28">
+        <v>5</v>
+      </c>
+      <c r="E79" s="28"/>
+      <c r="F79" s="4">
+        <v>21</v>
+      </c>
+      <c r="J79" s="12">
+        <v>9</v>
+      </c>
+      <c r="K79" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L79" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="M79" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="N79" s="14">
+        <v>4</v>
+      </c>
+      <c r="O79" s="13">
+        <v>6</v>
+      </c>
+      <c r="P79" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q79" s="20">
+        <v>5</v>
+      </c>
+      <c r="R79" s="36">
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="S79" s="28"/>
+      <c r="T79" s="36">
+        <v>0.51736111111111105</v>
+      </c>
+      <c r="U79" s="28"/>
+      <c r="V79" s="4">
+        <v>21</v>
+      </c>
+      <c r="W79" s="3">
+        <v>3</v>
+      </c>
+      <c r="X79" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y79" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B80" s="12">
+        <v>10</v>
+      </c>
+      <c r="C80" s="14">
+        <v>5</v>
+      </c>
+      <c r="D80" s="28">
+        <v>6</v>
+      </c>
+      <c r="E80" s="28"/>
+      <c r="F80" s="4">
+        <v>30</v>
+      </c>
+      <c r="J80" s="12">
+        <v>10</v>
+      </c>
+      <c r="K80" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L80" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="M80" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="N80" s="14">
+        <v>5</v>
+      </c>
+      <c r="O80" s="13">
+        <v>6</v>
+      </c>
+      <c r="P80" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q80" s="20">
+        <v>6</v>
+      </c>
+      <c r="R80" s="36">
+        <v>0.52430555555555558</v>
+      </c>
+      <c r="S80" s="28"/>
+      <c r="T80" s="36">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="U80" s="28"/>
+      <c r="V80" s="4">
+        <v>30</v>
+      </c>
+      <c r="W80" s="3">
+        <v>3</v>
+      </c>
+      <c r="X80" s="3">
+        <v>5</v>
+      </c>
+      <c r="Y80" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B81" s="12">
+        <v>11</v>
+      </c>
+      <c r="C81" s="14">
+        <v>5</v>
+      </c>
+      <c r="D81" s="28">
+        <v>6</v>
+      </c>
+      <c r="E81" s="28"/>
+      <c r="F81" s="4">
+        <v>24</v>
+      </c>
+      <c r="J81" s="12">
+        <v>11</v>
+      </c>
+      <c r="K81" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="L81" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="M81" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="N81" s="14">
+        <v>5</v>
+      </c>
+      <c r="O81" s="13">
+        <v>6</v>
+      </c>
+      <c r="P81" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q81" s="20">
+        <v>6</v>
+      </c>
+      <c r="R81" s="36">
+        <v>0.52430555555555558</v>
+      </c>
+      <c r="S81" s="28"/>
+      <c r="T81" s="36">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="U81" s="28"/>
+      <c r="V81" s="4">
+        <v>24</v>
+      </c>
+      <c r="W81" s="3">
+        <v>3</v>
+      </c>
+      <c r="X81" s="3">
+        <v>2</v>
+      </c>
+      <c r="Y81" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B82" s="12">
+        <v>12</v>
+      </c>
+      <c r="C82" s="14">
+        <v>5</v>
+      </c>
+      <c r="D82" s="28">
+        <v>6</v>
+      </c>
+      <c r="E82" s="28"/>
+      <c r="F82" s="4">
+        <v>23</v>
+      </c>
+      <c r="J82" s="12">
+        <v>12</v>
+      </c>
+      <c r="K82" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="L82" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="M82" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="N82" s="14">
+        <v>5</v>
+      </c>
+      <c r="O82" s="13">
+        <v>6</v>
+      </c>
+      <c r="P82" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q82" s="20">
+        <v>6</v>
+      </c>
+      <c r="R82" s="36">
+        <v>0.52430555555555558</v>
+      </c>
+      <c r="S82" s="28"/>
+      <c r="T82" s="36">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="U82" s="28"/>
+      <c r="V82" s="4">
+        <v>23</v>
+      </c>
+      <c r="W82" s="3">
+        <v>3</v>
+      </c>
+      <c r="X82" s="3">
+        <v>2</v>
+      </c>
+      <c r="Y82" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B83" s="12">
+        <v>13</v>
+      </c>
+      <c r="C83" s="14">
+        <v>6</v>
+      </c>
+      <c r="D83" s="28">
+        <v>1</v>
+      </c>
+      <c r="E83" s="28"/>
+      <c r="F83" s="4">
+        <v>14</v>
+      </c>
+      <c r="J83" s="12">
+        <v>13</v>
+      </c>
+      <c r="K83" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="L83" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="M83" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="N83" s="14">
+        <v>6</v>
+      </c>
+      <c r="O83" s="13">
+        <v>6</v>
+      </c>
+      <c r="P83" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q83" s="20">
+        <v>1</v>
+      </c>
+      <c r="R83" s="36">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="S83" s="28"/>
+      <c r="T83" s="36">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="U83" s="28"/>
+      <c r="V83" s="4">
+        <v>14</v>
+      </c>
+      <c r="W83" s="3">
+        <v>2</v>
+      </c>
+      <c r="X83" s="3">
+        <v>2</v>
+      </c>
+      <c r="Y83" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B84" s="12">
+        <v>14</v>
+      </c>
+      <c r="C84" s="14">
+        <v>6</v>
+      </c>
+      <c r="D84" s="28">
+        <v>1</v>
+      </c>
+      <c r="E84" s="28"/>
+      <c r="F84" s="4">
+        <v>13</v>
+      </c>
+      <c r="J84" s="12">
+        <v>14</v>
+      </c>
+      <c r="K84" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="L84" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="M84" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N84" s="14">
+        <v>6</v>
+      </c>
+      <c r="O84" s="13">
+        <v>6</v>
+      </c>
+      <c r="P84" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q84" s="20">
+        <v>1</v>
+      </c>
+      <c r="R84" s="36">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="S84" s="28"/>
+      <c r="T84" s="36">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="U84" s="28"/>
+      <c r="V84" s="4">
+        <v>13</v>
+      </c>
+      <c r="W84" s="3">
+        <v>2</v>
+      </c>
+      <c r="X84" s="3">
+        <v>2</v>
+      </c>
+      <c r="Y84" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B85" s="12">
+        <v>15</v>
+      </c>
+      <c r="C85" s="14">
+        <v>6</v>
+      </c>
+      <c r="D85" s="28">
+        <v>1</v>
+      </c>
+      <c r="E85" s="28"/>
+      <c r="F85" s="4">
+        <v>4</v>
+      </c>
+      <c r="J85" s="12">
+        <v>15</v>
+      </c>
+      <c r="K85" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="L85" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="M85" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="N85" s="14">
+        <v>6</v>
+      </c>
+      <c r="O85" s="13">
+        <v>6</v>
+      </c>
+      <c r="P85" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q85" s="20">
+        <v>1</v>
+      </c>
+      <c r="R85" s="36">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="S85" s="28"/>
+      <c r="T85" s="36">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="U85" s="28"/>
+      <c r="V85" s="4">
+        <v>4</v>
+      </c>
+      <c r="W85" s="3">
+        <v>1</v>
+      </c>
+      <c r="X85" s="3">
+        <v>2</v>
+      </c>
+      <c r="Y85" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B88" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="C88" s="27"/>
+      <c r="D88" s="27"/>
+      <c r="E88" s="27"/>
+      <c r="F88" s="27"/>
+      <c r="G88" s="27"/>
+      <c r="H88" s="27"/>
+    </row>
+    <row r="89" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B89" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C89" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="D89" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E89" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="F89" s="27"/>
+      <c r="G89" s="27"/>
+      <c r="H89" s="27"/>
+    </row>
+    <row r="90" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B90" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C90" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D90" s="11">
+        <v>10</v>
+      </c>
+      <c r="E90" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="F90" s="26"/>
+      <c r="G90" s="26"/>
+      <c r="H90" s="26"/>
+    </row>
+    <row r="91" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B91" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C91" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D91" s="15">
+        <v>10</v>
+      </c>
+      <c r="E91" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="F91" s="29"/>
+      <c r="G91" s="29"/>
+      <c r="H91" s="29"/>
+    </row>
+    <row r="92" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B92" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="C92" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D92" s="21">
+        <v>10</v>
+      </c>
+      <c r="E92" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="F92" s="30"/>
+      <c r="G92" s="30"/>
+      <c r="H92" s="30"/>
+    </row>
+    <row r="93" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B93" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D93" s="7">
+        <v>10</v>
+      </c>
+      <c r="E93" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="F93" s="25"/>
+      <c r="G93" s="25"/>
+      <c r="H93" s="25"/>
+    </row>
+  </sheetData>
+  <mergeCells count="96">
+    <mergeCell ref="T85:U85"/>
+    <mergeCell ref="J69:Y69"/>
+    <mergeCell ref="R84:S84"/>
+    <mergeCell ref="R85:S85"/>
+    <mergeCell ref="T71:U71"/>
+    <mergeCell ref="T72:U72"/>
+    <mergeCell ref="T73:U73"/>
+    <mergeCell ref="T74:U74"/>
+    <mergeCell ref="T75:U75"/>
+    <mergeCell ref="T76:U76"/>
+    <mergeCell ref="T77:U77"/>
+    <mergeCell ref="T78:U78"/>
+    <mergeCell ref="T79:U79"/>
+    <mergeCell ref="T80:U80"/>
+    <mergeCell ref="T81:U81"/>
+    <mergeCell ref="T82:U82"/>
+    <mergeCell ref="T83:U83"/>
+    <mergeCell ref="T84:U84"/>
+    <mergeCell ref="R79:S79"/>
+    <mergeCell ref="R80:S80"/>
+    <mergeCell ref="R81:S81"/>
+    <mergeCell ref="R82:S82"/>
+    <mergeCell ref="R83:S83"/>
+    <mergeCell ref="R74:S74"/>
+    <mergeCell ref="R75:S75"/>
+    <mergeCell ref="R76:S76"/>
+    <mergeCell ref="R77:S77"/>
+    <mergeCell ref="R78:S78"/>
+    <mergeCell ref="R70:S70"/>
+    <mergeCell ref="T70:U70"/>
+    <mergeCell ref="R71:S71"/>
+    <mergeCell ref="R72:S72"/>
+    <mergeCell ref="R73:S73"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="E42:H42"/>
+    <mergeCell ref="E43:H43"/>
+    <mergeCell ref="E44:H44"/>
+    <mergeCell ref="E41:H41"/>
+    <mergeCell ref="E40:H40"/>
+    <mergeCell ref="B39:H39"/>
+    <mergeCell ref="T40:W40"/>
+    <mergeCell ref="Q39:W39"/>
+    <mergeCell ref="Q5:S5"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="M41:O41"/>
+    <mergeCell ref="M40:O40"/>
+    <mergeCell ref="J39:O39"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="T41:W41"/>
+    <mergeCell ref="T42:W42"/>
+    <mergeCell ref="T43:W43"/>
+    <mergeCell ref="M42:O42"/>
+    <mergeCell ref="M43:O43"/>
+    <mergeCell ref="M44:O44"/>
+    <mergeCell ref="B49:F49"/>
+    <mergeCell ref="E62:H62"/>
+    <mergeCell ref="E63:H63"/>
+    <mergeCell ref="E64:H64"/>
+    <mergeCell ref="B60:H60"/>
+    <mergeCell ref="E61:H61"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="B69:F69"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="E93:H93"/>
+    <mergeCell ref="E90:H90"/>
+    <mergeCell ref="E89:H89"/>
+    <mergeCell ref="B88:H88"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="D85:E85"/>
+    <mergeCell ref="E91:H91"/>
+    <mergeCell ref="E92:H92"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>